--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d428188c4adbc4b/Bureau/Hearc/Di Applied/NanoProc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{3EBD5121-D674-4BCC-B180-B38D0DA137E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CC77A6-00C2-42ED-BF93-00A5839E06E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821157B-ADDD-427D-8424-F821E4EF1B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="66">
   <si>
     <t>sRESET</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>blanc</t>
+  </si>
+  <si>
+    <t>MULU</t>
+  </si>
+  <si>
+    <t>TFR</t>
+  </si>
+  <si>
+    <t>MUX_ACCU_ACCU2</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -852,11 +870,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,40 +1036,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,7 +1099,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1336,86 +1398,81 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
@@ -1485,8 +1542,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.3">
+      <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1520,8 +1577,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
+    <row r="7" spans="2:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="B7" s="60"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1554,8 +1611,8 @@
       </c>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
+    <row r="8" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1587,8 +1644,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
+    <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1620,8 +1677,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
+    <row r="10" spans="2:13" ht="90" x14ac:dyDescent="0.3">
+      <c r="B10" s="60"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1653,142 +1710,147 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
-      <c r="C11" s="37" t="s">
+    <row r="11" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="61"/>
+      <c r="C13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="K13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B14" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="46" t="s">
+      <c r="K14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="58" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="46" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>41</v>
@@ -1812,15 +1874,15 @@
         <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="46"/>
+    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
@@ -1843,19 +1905,19 @@
         <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="46" t="s">
-        <v>32</v>
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -1876,17 +1938,17 @@
         <v>56</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="46"/>
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>15</v>
@@ -1907,16 +1969,16 @@
         <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="46" t="s">
-        <v>33</v>
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="60"/>
+      <c r="C19" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>43</v>
@@ -1940,15 +2002,15 @@
         <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="46"/>
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1971,19 +2033,19 @@
         <v>56</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="46" t="s">
-        <v>34</v>
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+      <c r="C21" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>15</v>
@@ -2004,17 +2066,17 @@
         <v>56</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="46"/>
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>15</v>
@@ -2035,16 +2097,16 @@
         <v>56</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="46" t="s">
-        <v>35</v>
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>44</v>
@@ -2068,15 +2130,15 @@
         <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="46"/>
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
@@ -2099,19 +2161,19 @@
         <v>56</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="46" t="s">
-        <v>36</v>
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>15</v>
@@ -2132,17 +2194,17 @@
         <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="46"/>
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="60"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>15</v>
@@ -2163,16 +2225,16 @@
         <v>56</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="46" t="s">
-        <v>37</v>
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="60"/>
+      <c r="C27" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>45</v>
@@ -2196,15 +2258,15 @@
         <v>56</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
-      <c r="C28" s="46"/>
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2227,25 +2289,25 @@
         <v>56</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>15</v>
@@ -2266,19 +2328,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="48"/>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>15</v>
@@ -2293,28 +2353,28 @@
         <v>56</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
+    <row r="31" spans="2:12" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
@@ -2332,52 +2392,184 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="6" t="s">
+    <row r="32" spans="2:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B33" s="60"/>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="61"/>
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="16" t="s">
+      <c r="K36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B36"/>
     <mergeCell ref="E2:L2"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2392,13 +2584,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="45" t="s">
         <v>50</v>
       </c>
@@ -2406,7 +2598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
         <v>52</v>
       </c>
@@ -2414,7 +2606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
         <v>53</v>
       </c>
@@ -2422,7 +2614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>54</v>
       </c>
@@ -2430,7 +2622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
         <v>55</v>
       </c>

--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821157B-ADDD-427D-8424-F821E4EF1B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2099C-4B41-4B9C-9C6B-1A34D8F03090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
   <si>
     <t>sRESET</t>
   </si>
@@ -257,22 +257,26 @@
     <t>"101"</t>
   </si>
   <si>
-    <t>"110"</t>
-  </si>
-  <si>
     <t>blanc</t>
   </si>
   <si>
-    <t>MULU</t>
-  </si>
-  <si>
     <t>TFR</t>
   </si>
   <si>
-    <t>MUX_ACCU_ACCU2</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>MULUconst
+MULUaddr</t>
+  </si>
+  <si>
+    <t>SecAccu_load_o</t>
+  </si>
+  <si>
+    <t>MUX_SECACCU</t>
+  </si>
+  <si>
+    <t>'"110"</t>
+  </si>
+  <si>
+    <t>"111"</t>
   </si>
 </sst>
 </file>
@@ -333,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,14 +356,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -903,11 +901,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1095,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,32 +1128,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,10 +1483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M36"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,34 +1495,36 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-    </row>
-    <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
@@ -1450,29 +1537,32 @@
       <c r="E3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="I3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="J3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="K3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="L3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="M3" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1498,16 +1588,19 @@
         <v>15</v>
       </c>
       <c r="J4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
@@ -1527,23 +1620,26 @@
         <v>15</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="L5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1565,20 +1661,23 @@
         <v>15</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
+      <c r="L6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1598,21 +1697,24 @@
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="2:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="59"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1632,20 +1734,23 @@
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="90" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="90" x14ac:dyDescent="0.3">
+      <c r="B9" s="59"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1665,20 +1770,23 @@
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="90" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1698,716 +1806,760 @@
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="E11" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="60"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="65" t="s">
+      <c r="L12" s="71"/>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B13" s="60"/>
+      <c r="C13" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="61"/>
-      <c r="C13" s="37" t="s">
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="74"/>
+    </row>
+    <row r="14" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="61"/>
+      <c r="C14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="L14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B15" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="58" t="s">
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="59"/>
+      <c r="C16" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="8" t="s">
+      <c r="L16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="58" t="s">
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="59"/>
+      <c r="C18" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="8" t="s">
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="59"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="58" t="s">
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="8" t="s">
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="59"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="58" t="s">
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="59"/>
+      <c r="C22" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="8" t="s">
+      <c r="L22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="59"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="58" t="s">
+      <c r="L23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="59"/>
+      <c r="C24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="8" t="s">
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="59"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="E25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="58" t="s">
+      <c r="L25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="59"/>
+      <c r="C26" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="E26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="8" t="s">
+      <c r="L26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="59"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="58" t="s">
+      <c r="L27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="59"/>
+      <c r="C28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="E28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="8" t="s">
+      <c r="L28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="E29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="58" t="s">
+      <c r="L29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="59"/>
+      <c r="C30" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="E30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="8" t="s">
+      <c r="L30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="59"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="4" t="s">
+      <c r="L31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="59"/>
+      <c r="C32" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
@@ -2416,19 +2568,22 @@
         <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="5" t="s">
-        <v>40</v>
+      <c r="L32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="B33" s="59"/>
+      <c r="C33" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>18</v>
@@ -2449,127 +2604,210 @@
         <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64" t="s">
+      <c r="L33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B34" s="59"/>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="60"/>
+      <c r="C35" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D35" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="E35" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="65" t="s">
+      <c r="L35" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="60"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B37" s="60"/>
+      <c r="C37" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="E37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61"/>
-      <c r="C36" s="6" t="s">
+      <c r="L37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="61"/>
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="16" t="s">
+      <c r="L38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="16" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B36"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+  <mergeCells count="32">
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2578,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B608AB31-3511-49DF-8721-BFDA706A4762}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2630,12 +2868,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>60</v>
+      <c r="C7" s="79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2099C-4B41-4B9C-9C6B-1A34D8F03090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03906BF1-677B-4668-9E88-061A0132DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
@@ -1101,70 +1101,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,8 +1485,8 @@
   </sheetPr>
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,17 +1512,17 @@
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="49" t="s">
@@ -1537,7 +1537,7 @@
       <c r="E3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="58" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="53" t="s">
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="2:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1822,59 +1822,59 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="70" t="s">
+      <c r="E11" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="72" t="s">
+      <c r="L11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="73"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="55" t="s">
         <v>61</v>
       </c>
@@ -1908,10 +1908,10 @@
       <c r="M13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="74"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="61"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="37" t="s">
         <v>38</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="79" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -1985,8 +1985,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2021,8 +2021,8 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
@@ -2055,8 +2055,8 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="68" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2091,8 +2091,8 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
@@ -2125,8 +2125,8 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2161,8 +2161,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
@@ -2195,8 +2195,8 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="76"/>
+      <c r="C22" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2231,8 +2231,8 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
@@ -2265,8 +2265,8 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2301,8 +2301,8 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="57"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="8" t="s">
         <v>47</v>
       </c>
@@ -2335,8 +2335,8 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="68" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2371,8 +2371,8 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="8" t="s">
         <v>47</v>
       </c>
@@ -2405,8 +2405,8 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2441,8 +2441,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="8" t="s">
         <v>48</v>
       </c>
@@ -2475,8 +2475,8 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="68" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -2511,8 +2511,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="8" t="s">
         <v>48</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
@@ -2653,57 +2653,57 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
-      <c r="C35" s="75" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="70" t="s">
+      <c r="E35" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="72" t="s">
+      <c r="L35" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="60"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="73"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="64"/>
     </row>
     <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B37" s="60"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="55" t="s">
         <v>61</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="61"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
@@ -2776,6 +2776,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="E2:M2"/>
@@ -2792,22 +2808,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2869,10 +2869,10 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="60" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03906BF1-677B-4668-9E88-061A0132DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7DF5A1-5097-4953-ADB7-C1F0388B259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="67">
   <si>
     <t>sRESET</t>
   </si>
@@ -111,20 +111,6 @@
 INCaddr
 DECaddr
 NEGaddr</t>
-  </si>
-  <si>
-    <t>ANDconst
-Orconst
-XORconst
-ADDconst
-ADCconst</t>
-  </si>
-  <si>
-    <t>ANDaddr
-Oraddr
-XORaddr
-ADDaddr
-ADCaddr</t>
   </si>
   <si>
     <t>MUX_ACCU</t>
@@ -277,6 +263,22 @@
   </si>
   <si>
     <t>"111"</t>
+  </si>
+  <si>
+    <t>ANDconst
+Orconst
+XORconst
+ADDconst
+ADCconst
+MULUconst</t>
+  </si>
+  <si>
+    <t>ANDaddr
+Oraddr
+XORaddr
+ADDaddr
+ADCaddr
+MULUaddr</t>
   </si>
 </sst>
 </file>
@@ -1115,6 +1117,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,42 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,10 +1485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,21 +1510,21 @@
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="49" t="s">
@@ -1538,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>6</v>
@@ -1591,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>15</v>
@@ -1629,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="28" t="s">
         <v>15</v>
@@ -1639,7 +1641,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1667,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" s="34" t="s">
         <v>15</v>
@@ -1677,7 +1679,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>15</v>
@@ -1714,7 +1716,7 @@
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="2:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
@@ -1749,10 +1751,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
+    <row r="9" spans="2:14" ht="108" x14ac:dyDescent="0.3">
+      <c r="B9" s="64"/>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
@@ -1776,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>15</v>
@@ -1785,10 +1787,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B10" s="76"/>
+    <row r="10" spans="2:14" ht="108" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
@@ -1812,252 +1814,270 @@
         <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="57"/>
+    </row>
+    <row r="12" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="66"/>
+      <c r="C12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
-      <c r="C11" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="77"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="64"/>
-    </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="57"/>
-    </row>
-    <row r="14" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="64"/>
+      <c r="C16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="76"/>
-      <c r="C16" s="68" t="s">
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="64"/>
+      <c r="C18" s="74" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="68" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>41</v>
@@ -2081,440 +2101,442 @@
         <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="64"/>
+      <c r="C20" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="64"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
-      <c r="C20" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="64"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="64"/>
+      <c r="C24" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="64"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="64"/>
+      <c r="C26" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="8" t="s">
+      <c r="E26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
-      <c r="C22" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="64"/>
+      <c r="C28" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="8" t="s">
+      <c r="E28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="64"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="76"/>
-      <c r="C24" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="8" t="s">
+      <c r="E29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="64"/>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="B31" s="64"/>
+      <c r="C31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
-      <c r="C26" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="76"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="76"/>
-      <c r="C28" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="76"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="76"/>
-      <c r="C30" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="76"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="8" t="s">
-        <v>48</v>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>15</v>
@@ -2523,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
@@ -2535,34 +2557,34 @@
         <v>15</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="76"/>
-      <c r="C32" s="4" t="s">
-        <v>39</v>
+    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B32" s="64"/>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -2571,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>14</v>
@@ -2580,234 +2602,152 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="B33" s="76"/>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="7" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B34" s="76"/>
-      <c r="C34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E33" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="65"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="76"/>
+    </row>
+    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B35" s="65"/>
+      <c r="C35" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
-      <c r="C35" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="71" t="s">
+      <c r="E35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="66"/>
+      <c r="C36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="77"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="64"/>
-    </row>
-    <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B37" s="77"/>
-      <c r="C37" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="78"/>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="16" t="s">
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="16" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
+  <mergeCells count="22">
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
     <mergeCell ref="E2:M2"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2830,58 +2770,58 @@
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d428188c4adbc4b/Bureau/Project/NanoProcessor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7DF5A1-5097-4953-ADB7-C1F0388B259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1117,6 +1117,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1149,24 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,7 +1186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1487,46 +1487,46 @@
   </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
@@ -1640,8 +1640,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+    <row r="6" spans="2:14" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1678,8 +1678,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
+    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1715,8 +1715,8 @@
       </c>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="2:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
+    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1751,8 +1751,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="108" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
+    <row r="9" spans="2:14" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="70"/>
       <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
@@ -1787,8 +1787,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="108" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
+    <row r="10" spans="2:14" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
       <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
@@ -1823,8 +1823,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
+    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
       <c r="C11" s="55" t="s">
         <v>59</v>
       </c>
@@ -1860,8 +1860,8 @@
       </c>
       <c r="N11" s="57"/>
     </row>
-    <row r="12" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="66"/>
+    <row r="12" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="72"/>
       <c r="C12" s="37" t="s">
         <v>36</v>
       </c>
@@ -1896,8 +1896,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1934,9 +1934,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="74" t="s">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="68" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1970,9 +1970,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="74"/>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="70"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
@@ -2004,9 +2004,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="74" t="s">
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2040,9 +2040,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="74"/>
+    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
@@ -2074,9 +2074,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="74" t="s">
+    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
+      <c r="C18" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2110,9 +2110,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="74"/>
+    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="70"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
@@ -2144,9 +2144,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="74" t="s">
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
+      <c r="C20" s="68" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2180,9 +2180,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="74"/>
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="70"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
@@ -2214,9 +2214,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="74" t="s">
+    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="70"/>
+      <c r="C22" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2250,9 +2250,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="74"/>
+    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
@@ -2284,9 +2284,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="74" t="s">
+    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="70"/>
+      <c r="C24" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2320,9 +2320,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="74"/>
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="70"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2354,9 +2354,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="74" t="s">
+    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="70"/>
+      <c r="C26" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2390,9 +2390,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="74"/>
+    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="70"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="8" t="s">
         <v>46</v>
       </c>
@@ -2424,9 +2424,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="74" t="s">
+    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="70"/>
+      <c r="C28" s="68" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2460,9 +2460,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="74"/>
+    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="70"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
@@ -2494,8 +2494,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
+    <row r="30" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="70"/>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2530,8 +2530,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
+    <row r="31" spans="2:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="70"/>
       <c r="C31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2566,8 +2566,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
+    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B32" s="70"/>
       <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
@@ -2602,15 +2602,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="68" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="71"/>
+      <c r="C33" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="78" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="61" t="s">
@@ -2634,15 +2634,15 @@
       <c r="L33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="73"/>
+      <c r="M33" s="63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
@@ -2650,10 +2650,10 @@
       <c r="J34" s="62"/>
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
-      <c r="M34" s="76"/>
-    </row>
-    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B35" s="71"/>
       <c r="C35" s="55" t="s">
         <v>59</v>
       </c>
@@ -2688,8 +2688,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="66"/>
+    <row r="36" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
       <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
@@ -2726,6 +2726,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="E2:M2"/>
@@ -2737,17 +2743,11 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2762,13 +2762,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="45" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>51</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>52</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>25</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="59" t="s">
         <v>53</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="41" t="s">
         <v>62</v>
       </c>

--- a/Sorties séquenceur.xlsx
+++ b/Sorties séquenceur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d428188c4adbc4b/Bureau/Project/NanoProcessor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\sysnumapp\NanoProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7DF5A1-5097-4953-ADB7-C1F0388B259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E10D82-CBD8-4C93-95B9-90F3FADBB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E527F273-79B9-4B9E-B61C-80E5DBDE8B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="68">
   <si>
     <t>sRESET</t>
   </si>
@@ -158,8 +158,110 @@
     <t>Autres</t>
   </si>
   <si>
+    <t>STOREaddr</t>
+  </si>
+  <si>
+    <t>Z = '0'</t>
+  </si>
+  <si>
+    <t>Z = '1'</t>
+  </si>
+  <si>
+    <t>C = '0'</t>
+  </si>
+  <si>
+    <t>V = '0'</t>
+  </si>
+  <si>
+    <t>N = '0'</t>
+  </si>
+  <si>
+    <t>C = '1'</t>
+  </si>
+  <si>
+    <t>V = '1'</t>
+  </si>
+  <si>
+    <t>N = '1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETC
+CLRC
+TRFNC </t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX_ACCU      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX_CONST     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX_DATA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX_ACCU_DATA </t>
+  </si>
+  <si>
+    <t>"000"</t>
+  </si>
+  <si>
+    <t>"001"</t>
+  </si>
+  <si>
+    <t>"010"</t>
+  </si>
+  <si>
+    <t>"101"</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>TFR</t>
+  </si>
+  <si>
+    <t>MULUconst
+MULUaddr</t>
+  </si>
+  <si>
+    <t>SecAccu_load_o</t>
+  </si>
+  <si>
+    <t>MUX_SECACCU</t>
+  </si>
+  <si>
+    <t>'"110"</t>
+  </si>
+  <si>
+    <t>"111"</t>
+  </si>
+  <si>
+    <t>ANDaddr
+Oraddr
+XORaddr
+ADDaddr
+ADCaddr
+MULUaddr</t>
+  </si>
+  <si>
+    <t>ANDconst
+Orconst
+XORconst
+ADDconst
+ADCconst
+MULUconst
+LOADindconst</t>
+  </si>
+  <si>
     <t>LOADaddr
 LOADconst
+LOADindconst
 ANDconst
 ANDaddr
 ORconst
@@ -181,104 +283,7 @@
 NEGconst</t>
   </si>
   <si>
-    <t>STOREaddr</t>
-  </si>
-  <si>
-    <t>Z = '0'</t>
-  </si>
-  <si>
-    <t>Z = '1'</t>
-  </si>
-  <si>
-    <t>C = '0'</t>
-  </si>
-  <si>
-    <t>V = '0'</t>
-  </si>
-  <si>
-    <t>N = '0'</t>
-  </si>
-  <si>
-    <t>C = '1'</t>
-  </si>
-  <si>
-    <t>V = '1'</t>
-  </si>
-  <si>
-    <t>N = '1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SETC
-CLRC
-TRFNC </t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUX_ACCU      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUX_CONST     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUX_DATA      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUX_ACCU_DATA </t>
-  </si>
-  <si>
-    <t>"000"</t>
-  </si>
-  <si>
-    <t>"001"</t>
-  </si>
-  <si>
-    <t>"010"</t>
-  </si>
-  <si>
-    <t>"101"</t>
-  </si>
-  <si>
-    <t>blanc</t>
-  </si>
-  <si>
-    <t>TFR</t>
-  </si>
-  <si>
-    <t>MULUconst
-MULUaddr</t>
-  </si>
-  <si>
-    <t>SecAccu_load_o</t>
-  </si>
-  <si>
-    <t>MUX_SECACCU</t>
-  </si>
-  <si>
-    <t>'"110"</t>
-  </si>
-  <si>
-    <t>"111"</t>
-  </si>
-  <si>
-    <t>ANDconst
-Orconst
-XORconst
-ADDconst
-ADCconst
-MULUconst</t>
-  </si>
-  <si>
-    <t>ANDaddr
-Oraddr
-XORaddr
-ADDaddr
-ADCaddr
-MULUaddr</t>
+    <t>RTS</t>
   </si>
 </sst>
 </file>
@@ -959,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,7 +1119,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1134,39 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,7 +1200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1485,48 +1499,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N36"/>
+  <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>6</v>
@@ -1564,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>15</v>
@@ -1602,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="28" t="s">
         <v>15</v>
@@ -1640,8 +1654,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="2:14" ht="90" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1678,8 +1692,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
+    <row r="7" spans="2:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="B7" s="67"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1715,8 +1729,8 @@
       </c>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+    <row r="8" spans="2:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="67"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1751,8 +1765,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
+    <row r="9" spans="2:14" ht="126" x14ac:dyDescent="0.3">
+      <c r="B9" s="67"/>
       <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
@@ -1787,10 +1801,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+    <row r="10" spans="2:14" ht="108" x14ac:dyDescent="0.3">
+      <c r="B10" s="67"/>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
@@ -1823,10 +1837,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
+    <row r="11" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B11" s="68"/>
       <c r="C11" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>18</v>
@@ -1850,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>15</v>
@@ -1860,8 +1874,8 @@
       </c>
       <c r="N11" s="57"/>
     </row>
-    <row r="12" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
+    <row r="12" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="69"/>
       <c r="C12" s="37" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>15</v>
@@ -1896,8 +1910,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B13" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1925,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
@@ -1934,538 +1948,538 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="68" t="s">
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="67"/>
+      <c r="C14" s="82" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="67"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="67"/>
+      <c r="C16" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="67"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="67"/>
+      <c r="C18" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="8" t="s">
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="67"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="67"/>
+      <c r="C20" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="67"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="67"/>
+      <c r="C22" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="8" t="s">
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="67"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="67"/>
+      <c r="C24" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="8" t="s">
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="67"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="67"/>
+      <c r="C26" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="8" t="s">
+      <c r="E26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="67"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="67"/>
+      <c r="C28" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="8" t="s">
+      <c r="E28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="67"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" s="12" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2499,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>15</v>
@@ -2494,10 +2508,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="70"/>
+    <row r="30" spans="2:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="67"/>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>18</v>
@@ -2521,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>14</v>
@@ -2530,10 +2544,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
+    <row r="31" spans="2:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="B31" s="67"/>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>18</v>
@@ -2557,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>14</v>
@@ -2566,10 +2580,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
+    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B32" s="67"/>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>18</v>
@@ -2593,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>14</v>
@@ -2602,60 +2616,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="71"/>
-      <c r="C33" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="76" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="68"/>
+      <c r="C33" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="64"/>
-    </row>
-    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
+      <c r="E33" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="68"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="78"/>
+    </row>
+    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B35" s="68"/>
       <c r="C35" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>18</v>
@@ -2667,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>15</v>
@@ -2679,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>14</v>
@@ -2688,50 +2702,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="6" t="s">
+    <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B36" s="68"/>
+      <c r="C36" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="69"/>
+      <c r="C37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="16" t="s">
+      <c r="E37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="16" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="E2:M2"/>
@@ -2748,6 +2780,12 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B37"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2762,66 +2800,66 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="45" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C4" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C5" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
